--- a/citizen_science_flora_top_bom.xlsx
+++ b/citizen_science_flora_top_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaman\OneDrive\Documents\GitHub\citizen_science_paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51c118854276e9fd/Documents/GitHub/citizen_science_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{29A30D16-008F-4B68-940E-2DD126E9F68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:9_{29A30D16-008F-4B68-940E-2DD126E9F68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{188DCA90-198A-4BD5-AE38-653FAE2213A6}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{93BA669C-EC05-4E6C-A2ED-53F07742DF3E}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10395" windowHeight="15585" xr2:uid="{93BA669C-EC05-4E6C-A2ED-53F07742DF3E}"/>
   </bookViews>
   <sheets>
     <sheet name="citizen_science_flora_top_bom" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="170">
   <si>
     <t>Comment</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>C2940195</t>
+  </si>
+  <si>
+    <t>60312202114511</t>
   </si>
 </sst>
 </file>
@@ -1080,6 +1083,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1401,20 +1408,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E7284-6A56-42D8-8DDE-65F0BD1A0F53}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1428,7 +1435,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -1442,7 +1449,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1456,7 +1463,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -1470,7 +1477,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -1484,7 +1491,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
@@ -1498,7 +1505,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
@@ -1512,7 +1519,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -1526,7 +1533,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
@@ -1540,7 +1547,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B10" t="s">
@@ -1554,7 +1561,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
@@ -1568,7 +1575,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B12" t="s">
@@ -1582,7 +1589,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
@@ -1596,7 +1603,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
@@ -1610,7 +1617,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
@@ -1624,7 +1631,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
@@ -1638,7 +1645,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
@@ -1652,7 +1659,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B18" t="s">
@@ -1666,7 +1673,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B19" t="s">
@@ -1680,7 +1687,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>27</v>
       </c>
       <c r="B20" t="s">
@@ -1694,7 +1701,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>33</v>
       </c>
       <c r="B21" t="s">
@@ -1708,7 +1715,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>100</v>
       </c>
       <c r="B22" t="s">
@@ -1722,7 +1729,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B23" t="s">
@@ -1736,7 +1743,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>470</v>
       </c>
       <c r="B24" t="s">
@@ -1750,8 +1757,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>60312202114511</v>
+      <c r="A25" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
@@ -1764,7 +1771,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B26" t="s">
@@ -1778,7 +1785,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B27" t="s">
@@ -1792,7 +1799,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B28" t="s">
@@ -1806,7 +1813,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B29" t="s">
@@ -1820,7 +1827,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
@@ -1834,7 +1841,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
@@ -1848,7 +1855,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B32" t="s">
@@ -1862,7 +1869,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
@@ -1876,7 +1883,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B34" t="s">
@@ -1890,7 +1897,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B35" t="s">
@@ -1904,7 +1911,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B36" t="s">
@@ -1918,7 +1925,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B37" t="s">
@@ -1932,7 +1939,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B38" t="s">
@@ -1946,7 +1953,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B39" t="s">
@@ -1960,7 +1967,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B40" t="s">
@@ -1974,7 +1981,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B41" t="s">
@@ -1988,7 +1995,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B42" t="s">
@@ -2003,7 +2010,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B43" t="s">
@@ -2017,7 +2024,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B44" t="s">
@@ -2031,7 +2038,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B45" t="s">
@@ -2045,7 +2052,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B46" t="s">
@@ -2059,7 +2066,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B47" t="s">
@@ -2073,7 +2080,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B48" t="s">
@@ -2087,7 +2094,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B49" t="s">
@@ -2101,7 +2108,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B50" t="s">
@@ -2115,7 +2122,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B51" t="s">
@@ -2129,7 +2136,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B52" t="s">
@@ -2143,7 +2150,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B53" t="s">

--- a/citizen_science_flora_top_bom.xlsx
+++ b/citizen_science_flora_top_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51c118854276e9fd/Documents/GitHub/citizen_science_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:9_{29A30D16-008F-4B68-940E-2DD126E9F68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{188DCA90-198A-4BD5-AE38-653FAE2213A6}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:9_{29A30D16-008F-4B68-940E-2DD126E9F68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8BEC8E9-84BB-4110-8D87-EE60DFDB2D50}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10395" windowHeight="15585" xr2:uid="{93BA669C-EC05-4E6C-A2ED-53F07742DF3E}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{93BA669C-EC05-4E6C-A2ED-53F07742DF3E}"/>
   </bookViews>
   <sheets>
     <sheet name="citizen_science_flora_top_bom" sheetId="1" r:id="rId1"/>
@@ -1408,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E7284-6A56-42D8-8DDE-65F0BD1A0F53}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1448,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
